--- a/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_21_.xlsx
+++ b/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_21_.xlsx
@@ -1929,10 +1929,10 @@
           <t>2018-10406</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2018-06-20T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2018-06-22T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -36845,7 +36845,7 @@
         <v>1541848</v>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
     </row>

--- a/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_21_.xlsx
+++ b/reports/_CMC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_21_.xlsx
@@ -1680,7 +1680,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:306</t>
+          <t>Total number of containers:306</t>
         </is>
       </c>
     </row>
@@ -36639,7 +36639,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:50</t>
+          <t>Total number of containers:50</t>
         </is>
       </c>
     </row>
